--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/PlayerSkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/PlayerSkillCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FA1DFF-4599-4E5E-B6DC-289767609B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC1E5B-61EA-427B-BAE5-E6D569E694DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="玩家技能表" sheetId="1" r:id="rId1"/>
@@ -18,23 +18,12 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -86,14 +75,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>showPriority</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面展示优先级(越大越前)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -324,13 +305,71 @@
   <si>
     <t>PlayerSkill_BreakArmor</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>(list#sep=;),string</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>propertyType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=propertyType@UnitPropertyCfgCategory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerFlame1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerFlame2</t>
+  </si>
+  <si>
+    <t>TowerFlame3</t>
+  </si>
+  <si>
+    <t>isShowInBattleDeckUI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在UI面板中展示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unLockCondition</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnLockConditionBase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnLockByPVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +403,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -427,7 +475,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -442,8 +490,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -482,12 +531,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="差 3" xfId="5" xr:uid="{562222E6-B1B8-4F59-AC01-AF34A6F74915}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="3" xr:uid="{12966A7E-07BD-4C7C-8299-BDD4BD7B54DE}"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="好 3" xfId="4" xr:uid="{D60E7979-F8FA-4303-AA39-FFECF154940E}"/>
   </cellStyles>
@@ -558,13 +611,16 @@
             <v>每秒恢复</v>
           </cell>
           <cell r="L1" t="str">
-            <v>充满回合</v>
+            <v>每回合回复</v>
           </cell>
           <cell r="M1" t="str">
-            <v>解锁价格</v>
+            <v>解锁方式</v>
           </cell>
           <cell r="N1" t="str">
             <v>补充价格</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>解锁条件</v>
           </cell>
         </row>
         <row r="2">
@@ -581,7 +637,7 @@
             <v>破甲弹</v>
           </cell>
           <cell r="E2" t="str">
-            <v>伤害敌方并降低护甲</v>
+            <v>伤害敌方并降低护甲，可破除隐身状态</v>
           </cell>
           <cell r="F2">
             <v>1</v>
@@ -596,19 +652,22 @@
             <v>0</v>
           </cell>
           <cell r="J2">
-            <v>10</v>
+            <v>20</v>
           </cell>
           <cell r="K2">
             <v>0</v>
           </cell>
           <cell r="L2">
-            <v>1</v>
-          </cell>
-          <cell r="M2">
-            <v>0</v>
+            <v>7</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>UnLockDefault</v>
           </cell>
           <cell r="N2">
             <v>30</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>新手引导</v>
           </cell>
         </row>
         <row r="3">
@@ -646,13 +705,16 @@
             <v>0</v>
           </cell>
           <cell r="L3">
-            <v>2</v>
-          </cell>
-          <cell r="M3">
-            <v>0</v>
+            <v>1</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>UnLockByPVE</v>
           </cell>
           <cell r="N3">
             <v>30</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>挑战第1关</v>
           </cell>
         </row>
         <row r="4">
@@ -690,13 +752,16 @@
             <v>0</v>
           </cell>
           <cell r="L4">
-            <v>3</v>
-          </cell>
-          <cell r="M4">
-            <v>0</v>
+            <v>0.34</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>UnLockByPVE</v>
           </cell>
           <cell r="N4">
             <v>30</v>
+          </cell>
+          <cell r="O4" t="str">
+            <v>挑战第2关</v>
           </cell>
         </row>
         <row r="5">
@@ -713,7 +778,7 @@
             <v>净化药水</v>
           </cell>
           <cell r="E5" t="str">
-            <v>驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</v>
+            <v>从天上掉落圣水，驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</v>
           </cell>
           <cell r="F5">
             <v>1</v>
@@ -734,10 +799,10 @@
             <v>0</v>
           </cell>
           <cell r="L5">
-            <v>1</v>
-          </cell>
-          <cell r="M5">
-            <v>500</v>
+            <v>5</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N5">
             <v>100</v>
@@ -778,10 +843,10 @@
             <v>0</v>
           </cell>
           <cell r="L6">
-            <v>2</v>
-          </cell>
-          <cell r="M6">
-            <v>1000</v>
+            <v>1</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N6">
             <v>100</v>
@@ -798,7 +863,7 @@
             <v>魔法阵-大范围沉默dot</v>
           </cell>
           <cell r="D7" t="str">
-            <v>绝对静默</v>
+            <v>雷电领域</v>
           </cell>
           <cell r="E7" t="str">
             <v>禁止范围内敌人使用任何技能，且造成持续伤害</v>
@@ -822,10 +887,10 @@
             <v>0</v>
           </cell>
           <cell r="L7">
-            <v>3</v>
-          </cell>
-          <cell r="M7">
-            <v>2000</v>
+            <v>0.34</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N7">
             <v>100</v>
@@ -866,10 +931,10 @@
             <v>0</v>
           </cell>
           <cell r="L8">
-            <v>1</v>
-          </cell>
-          <cell r="M8">
-            <v>1</v>
+            <v>5</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N8">
             <v>300</v>
@@ -910,10 +975,10 @@
             <v>0</v>
           </cell>
           <cell r="L9">
-            <v>2</v>
-          </cell>
-          <cell r="M9">
-            <v>2</v>
+            <v>1</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N9">
             <v>300</v>
@@ -954,10 +1019,10 @@
             <v>0</v>
           </cell>
           <cell r="L10">
-            <v>3</v>
-          </cell>
-          <cell r="M10">
-            <v>4</v>
+            <v>0.34</v>
+          </cell>
+          <cell r="M10" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N10">
             <v>300</v>
@@ -1231,28 +1296,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="32.77734375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="8.75" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="9" customWidth="1"/>
+    <col min="5" max="9" width="16.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="25.625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="32.75" style="9" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,22 +1328,31 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,37 +1362,49 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1331,10 +1416,13 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1343,555 +1431,742 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="9">
+        <v>100</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="9">
-        <v>100</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="9">
         <v>100</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="8">
         <v>3</v>
       </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="E8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="9">
         <v>100</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="8">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="E9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="9">
         <v>100</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
       </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="E10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="9">
         <v>100</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8">
         <v>3</v>
       </c>
-      <c r="E11" s="8">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="E11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="9">
         <v>100</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="8">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="E12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="9">
         <v>100</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="8">
-        <v>3</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="E13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="9">
         <v>100</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="8">
-        <v>3</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="E14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="9">
         <v>100</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="8">
-        <v>4</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="E15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="9">
         <v>100</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8">
         <v>2</v>
       </c>
-      <c r="E16" s="8">
-        <v>4</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="E16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="9">
         <v>100</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8">
         <v>3</v>
       </c>
-      <c r="E17" s="8">
-        <v>4</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="E17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="9">
         <v>100</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="E19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="9">
         <v>100</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="8">
-        <v>2</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="E20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="9">
         <v>100</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="8">
-        <v>3</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="E21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="9">
         <v>100</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="8">
-        <v>4</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="E22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="9">
         <v>100</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10" t="str">
+        <f>VLOOKUP(B24,[1]技能!$A:$O,13,FALSE)</f>
+        <v>UnLockDefault</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="9">
+        <f>IF(LEFT(G24,15)="UnLockByDiamond",RIGHT(G24,LEN(G24)-16),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <f>VLOOKUP(B24,[1]技能!$A:$N,13,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10" t="str">
+        <f>VLOOKUP(B25,[1]技能!$A:$O,13,FALSE)</f>
+        <v>UnLockByPVE</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" ref="J25:J32" si="0">IF(LEFT(G25,15)="UnLockByDiamond",RIGHT(G25,LEN(G25)-16),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
-        <v>2</v>
-      </c>
-      <c r="G25" s="9">
-        <f>VLOOKUP(B25,[1]技能!$A:$N,13,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10" t="str">
+        <f>VLOOKUP(B26,[1]技能!$A:$O,13,FALSE)</f>
+        <v>UnLockByPVE</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9">
-        <v>3</v>
-      </c>
-      <c r="G26" s="9">
-        <f>VLOOKUP(B26,[1]技能!$A:$N,13,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10" t="str">
+        <f>VLOOKUP(B27,[1]技能!$A:$O,13,FALSE)</f>
+        <v>UnLockSoon</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
-        <v>4</v>
-      </c>
-      <c r="G27" s="9">
-        <f>VLOOKUP(B27,[1]技能!$A:$N,13,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10" t="str">
+        <f>VLOOKUP(B28,[1]技能!$A:$O,13,FALSE)</f>
+        <v>UnLockSoon</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9">
-        <v>5</v>
-      </c>
-      <c r="G28" s="9">
-        <f>VLOOKUP(B28,[1]技能!$A:$N,13,FALSE)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10" t="str">
+        <f>VLOOKUP(B29,[1]技能!$A:$O,13,FALSE)</f>
+        <v>UnLockSoon</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9">
-        <v>6</v>
-      </c>
-      <c r="G29" s="9">
-        <f>VLOOKUP(B29,[1]技能!$A:$N,13,FALSE)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f>VLOOKUP(B30,[1]技能!$A:$O,13,FALSE)</f>
+        <v>UnLockSoon</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="9">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9">
-        <v>7</v>
-      </c>
-      <c r="G30" s="9">
-        <f>VLOOKUP(B30,[1]技能!$A:$N,13,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10" t="str">
+        <f>VLOOKUP(B31,[1]技能!$A:$O,13,FALSE)</f>
+        <v>UnLockSoon</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="9">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9">
-        <v>8</v>
-      </c>
-      <c r="G31" s="9">
-        <f>VLOOKUP(B31,[1]技能!$A:$N,13,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="D32" s="9">
         <v>1</v>
       </c>
-      <c r="E32" s="9">
-        <v>9</v>
-      </c>
-      <c r="G32" s="9">
-        <f>VLOOKUP(B32,[1]技能!$A:$N,13,FALSE)</f>
-        <v>4</v>
+      <c r="F32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10" t="str">
+        <f>VLOOKUP(B32,[1]技能!$A:$O,13,FALSE)</f>
+        <v>UnLockSoon</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{40C0E853-F112-47C2-B16E-4B45DA1E2A84}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/PlayerSkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/PlayerSkillCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC1E5B-61EA-427B-BAE5-E6D569E694DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE5C6C4-2D80-4277-9F5E-AD56525DF69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>##var</t>
   </si>
@@ -363,6 +363,15 @@
   </si>
   <si>
     <t>UnLockByPVE</t>
+  </si>
+  <si>
+    <t>Video_PlayerSkill_BreakArmor</t>
+  </si>
+  <si>
+    <t>Video_PlayerSkill_IceBind</t>
+  </si>
+  <si>
+    <t>Video_PlayerSkill_TimeBarrier</t>
   </si>
 </sst>
 </file>
@@ -570,6 +579,7 @@
       <sheetName val="无限模式"/>
       <sheetName val="挑战模式"/>
       <sheetName val="引导"/>
+      <sheetName val="商业化"/>
       <sheetName val="参考"/>
     </sheetNames>
     <sheetDataSet>
@@ -658,13 +668,13 @@
             <v>0</v>
           </cell>
           <cell r="L2">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="M2" t="str">
             <v>UnLockDefault</v>
           </cell>
           <cell r="N2">
-            <v>30</v>
+            <v>25</v>
           </cell>
           <cell r="O2" t="str">
             <v>新手引导</v>
@@ -711,7 +721,7 @@
             <v>UnLockByPVE</v>
           </cell>
           <cell r="N3">
-            <v>30</v>
+            <v>25</v>
           </cell>
           <cell r="O3" t="str">
             <v>挑战第1关</v>
@@ -758,7 +768,7 @@
             <v>UnLockByPVE</v>
           </cell>
           <cell r="N4">
-            <v>30</v>
+            <v>25</v>
           </cell>
           <cell r="O4" t="str">
             <v>挑战第2关</v>
@@ -805,7 +815,7 @@
             <v>UnLockSoon</v>
           </cell>
           <cell r="N5">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="6">
@@ -849,7 +859,7 @@
             <v>UnLockSoon</v>
           </cell>
           <cell r="N6">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="7">
@@ -893,7 +903,7 @@
             <v>UnLockSoon</v>
           </cell>
           <cell r="N7">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="8">
@@ -937,7 +947,7 @@
             <v>UnLockSoon</v>
           </cell>
           <cell r="N8">
-            <v>300</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="9">
@@ -981,7 +991,7 @@
             <v>UnLockSoon</v>
           </cell>
           <cell r="N9">
-            <v>300</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="10">
@@ -1025,7 +1035,7 @@
             <v>UnLockSoon</v>
           </cell>
           <cell r="N10">
-            <v>300</v>
+            <v>25</v>
           </cell>
         </row>
       </sheetData>
@@ -1033,6 +1043,7 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1300,7 +1311,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24:B32"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1946,6 +1957,9 @@
       <c r="D24" s="9">
         <v>1</v>
       </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
       <c r="F24" s="9" t="b">
         <v>1</v>
       </c>
@@ -1971,6 +1985,9 @@
       <c r="D25" s="9">
         <v>1</v>
       </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
       <c r="F25" s="9" t="b">
         <v>1</v>
       </c>
@@ -1995,6 +2012,9 @@
       </c>
       <c r="D26" s="9">
         <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
       </c>
       <c r="F26" s="9" t="b">
         <v>1</v>
